--- a/home/BalanceSheet-Monthly.xlsx
+++ b/home/BalanceSheet-Monthly.xlsx
@@ -783,7 +783,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
